--- a/TT.xlsx
+++ b/TT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0720F89-9AB9-4DD6-B03D-0DE60A2B3F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3ADD81-8E42-494E-A9A5-20B284AC594C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -237,9 +237,6 @@
     <t>Давление измеряемой среды рабочее/максимальное</t>
   </si>
   <si>
-    <t>бар</t>
-  </si>
-  <si>
     <t xml:space="preserve">Температура в точке монтажа, Тmax </t>
   </si>
   <si>
@@ -262,6 +259,9 @@
   </si>
   <si>
     <t>Напряжение питания</t>
+  </si>
+  <si>
+    <t>кПа</t>
   </si>
 </sst>
 </file>
@@ -507,12 +507,93 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -528,9 +609,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -545,84 +623,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1029,8 +1029,8 @@
   </sheetPr>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:D36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1044,589 +1044,554 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="52"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" ht="19.5">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="24" customHeight="1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" ht="24" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" ht="27" customHeight="1">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="13"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
+      <c r="A30" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+      <c r="A32" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="39"/>
+      <c r="A33" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="13"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="39"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="23"/>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="42"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
       <c r="E37" s="13"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="18"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="45"/>
     </row>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
+      <c r="A39" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
     </row>
     <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+    </row>
+    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
+    </row>
+    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-    </row>
-    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="18"/>
-    </row>
-    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="25"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="10"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="53"/>
     </row>
     <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="18"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="45"/>
     </row>
     <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
+      <c r="A44" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
     </row>
     <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
     </row>
     <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
       <c r="E46" s="13"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
     </row>
     <row r="48" spans="1:7" ht="48" customHeight="1">
-      <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="21"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A1:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="A29:D29"/>
@@ -1643,17 +1608,52 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A1:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="F30:G30"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F46:G46" xr:uid="{00000000-0002-0000-0000-000000000000}">
